--- a/output3/final_output.xlsx
+++ b/output3/final_output.xlsx
@@ -449,7 +449,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D39"/>
+  <dimension ref="A1:D27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -457,7 +457,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col width="42" customWidth="1" min="1" max="1"/>
+    <col width="38" customWidth="1" min="1" max="1"/>
     <col width="16" customWidth="1" min="2" max="2"/>
     <col width="16" customWidth="1" min="3" max="3"/>
     <col width="25" customWidth="1" min="4" max="4"/>
@@ -513,7 +513,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>1843.29</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -530,7 +530,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>1457.49</t>
+          <t>0.0</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -547,7 +547,7 @@
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>3339.11</t>
+          <t>3649.92</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>6752.11</t>
+          <t>3649.92</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -605,10 +605,10 @@
         </is>
       </c>
       <c r="B12" s="4" t="n">
-        <v>184329483.33</v>
+        <v>0</v>
       </c>
       <c r="C12" s="4" t="n">
-        <v>1843.29</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -618,10 +618,10 @@
         </is>
       </c>
       <c r="B13" s="4" t="n">
-        <v>145748779.2</v>
+        <v>0</v>
       </c>
       <c r="C13" s="4" t="n">
-        <v>1457.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -631,10 +631,10 @@
         </is>
       </c>
       <c r="B14" s="4" t="n">
-        <v>333910980.82</v>
+        <v>364991674.78</v>
       </c>
       <c r="C14" s="4" t="n">
-        <v>3339.11</v>
+        <v>3649.92</v>
       </c>
     </row>
     <row r="15"/>
@@ -670,14 +670,14 @@
     <row r="18">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>DAIMLER FINANCIAL SERVICES INDIA PVT LTD</t>
+          <t>Income</t>
         </is>
       </c>
       <c r="B18" s="4" t="n">
-        <v>4469387.1</v>
+        <v>0</v>
       </c>
       <c r="C18" s="4" t="n">
-        <v>44.69</v>
+        <v>0</v>
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
@@ -688,14 +688,14 @@
     <row r="19">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>Sales Accounts</t>
+          <t>Gain / Loss on Sales of Fixed Assets</t>
         </is>
       </c>
       <c r="B19" s="4" t="n">
-        <v>330858462.82</v>
+        <v>576084.78</v>
       </c>
       <c r="C19" s="4" t="n">
-        <v>3308.58</v>
+        <v>5.76</v>
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
@@ -706,32 +706,32 @@
     <row r="20">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>Servicing of BA/BE PROJECTS EXPORT</t>
+          <t>Sales</t>
         </is>
       </c>
       <c r="B20" s="4" t="n">
-        <v>145194733.6</v>
+        <v>364415590</v>
       </c>
       <c r="C20" s="4" t="n">
-        <v>1451.95</v>
+        <v>3644.16</v>
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>Unmapped</t>
+          <t>Revenue from Operations</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>Servicing of BA/BE PROJECTS-Inter State</t>
+          <t>Consultancy &amp; Service Fee</t>
         </is>
       </c>
       <c r="B21" s="4" t="n">
-        <v>7268083</v>
+        <v>0</v>
       </c>
       <c r="C21" s="4" t="n">
-        <v>72.68000000000001</v>
+        <v>0</v>
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
@@ -742,14 +742,14 @@
     <row r="22">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>Servicing of BA/BE PROJECTS-Intra State</t>
+          <t>Income Tax</t>
         </is>
       </c>
       <c r="B22" s="4" t="n">
-        <v>170284955.33</v>
+        <v>0</v>
       </c>
       <c r="C22" s="4" t="n">
-        <v>1702.85</v>
+        <v>0</v>
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
@@ -757,258 +757,42 @@
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" s="5" t="inlineStr">
-        <is>
-          <t>SERVICING OF BA PROJECTS-Intra State</t>
-        </is>
-      </c>
-      <c r="B23" s="4" t="n">
-        <v>619200</v>
-      </c>
-      <c r="C23" s="4" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="D23" s="5" t="inlineStr">
-        <is>
-          <t>Unmapped</t>
-        </is>
-      </c>
-    </row>
+    <row r="23"/>
     <row r="24">
-      <c r="A24" s="5" t="inlineStr">
-        <is>
-          <t>SERVICING OF ONLY CLINICAL INTRA STATE</t>
-        </is>
-      </c>
-      <c r="B24" s="4" t="n">
-        <v>6157245</v>
-      </c>
-      <c r="C24" s="4" t="n">
-        <v>61.57</v>
-      </c>
-      <c r="D24" s="5" t="inlineStr">
-        <is>
-          <t>Unmapped</t>
+      <c r="A24" s="6" t="inlineStr">
+        <is>
+          <t>Summary:</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="5" t="inlineStr">
-        <is>
-          <t>Working Standards - Export</t>
-        </is>
-      </c>
-      <c r="B25" s="4" t="n">
-        <v>554045.6</v>
-      </c>
-      <c r="C25" s="4" t="n">
-        <v>5.54</v>
-      </c>
-      <c r="D25" s="5" t="inlineStr">
-        <is>
-          <t>Unmapped</t>
-        </is>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Total Amount:</t>
+        </is>
+      </c>
+      <c r="B25" s="7" t="n">
+        <v>364991674.78</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="5" t="inlineStr">
-        <is>
-          <t>Ambulance Service Charges</t>
-        </is>
-      </c>
-      <c r="B26" s="4" t="n">
-        <v>244000</v>
-      </c>
-      <c r="C26" s="4" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="D26" s="5" t="inlineStr">
-        <is>
-          <t>Unmapped</t>
-        </is>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Total Amount (Lakhs):</t>
+        </is>
+      </c>
+      <c r="B26" s="7" t="n">
+        <v>3649.92</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="5" t="inlineStr">
-        <is>
-          <t>BE Center-Consultancy Charges</t>
-        </is>
-      </c>
-      <c r="B27" s="4" t="n">
-        <v>820089.29</v>
-      </c>
-      <c r="C27" s="4" t="n">
-        <v>8.199999999999999</v>
-      </c>
-      <c r="D27" s="5" t="inlineStr">
-        <is>
-          <t>Unmapped</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="5" t="inlineStr">
-        <is>
-          <t>Indirect Incomes</t>
-        </is>
-      </c>
-      <c r="B28" s="4" t="n">
-        <v>2784718</v>
-      </c>
-      <c r="C28" s="4" t="n">
-        <v>27.85</v>
-      </c>
-      <c r="D28" s="5" t="inlineStr">
-        <is>
-          <t>Unmapped</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="5" t="inlineStr">
-        <is>
-          <t>Interest on Income Tax Refund</t>
-        </is>
-      </c>
-      <c r="B29" s="4" t="n">
-        <v>267800</v>
-      </c>
-      <c r="C29" s="4" t="n">
-        <v>2.68</v>
-      </c>
-      <c r="D29" s="5" t="inlineStr">
-        <is>
-          <t>Finance Costs</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="5" t="inlineStr">
-        <is>
-          <t>CDM AND CDISC SERVICES</t>
-        </is>
-      </c>
-      <c r="B30" s="4" t="n">
-        <v>2572000</v>
-      </c>
-      <c r="C30" s="4" t="n">
-        <v>25.72</v>
-      </c>
-      <c r="D30" s="5" t="inlineStr">
-        <is>
-          <t>Unmapped</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="5" t="inlineStr">
-        <is>
-          <t>COnsultancy Charges</t>
-        </is>
-      </c>
-      <c r="B31" s="4" t="n">
-        <v>1825541</v>
-      </c>
-      <c r="C31" s="4" t="n">
-        <v>18.26</v>
-      </c>
-      <c r="D31" s="5" t="inlineStr">
-        <is>
-          <t>Unmapped</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="5" t="inlineStr">
-        <is>
-          <t>Professional &amp; Consultancy Fee</t>
-        </is>
-      </c>
-      <c r="B32" s="4" t="n">
-        <v>92500</v>
-      </c>
-      <c r="C32" s="4" t="n">
-        <v>0.93</v>
-      </c>
-      <c r="D32" s="5" t="inlineStr">
-        <is>
-          <t>Unmapped</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="5" t="inlineStr">
-        <is>
-          <t>SECURITY SERVICES</t>
-        </is>
-      </c>
-      <c r="B33" s="4" t="n">
-        <v>1173753</v>
-      </c>
-      <c r="C33" s="4" t="n">
-        <v>11.74</v>
-      </c>
-      <c r="D33" s="5" t="inlineStr">
-        <is>
-          <t>Unmapped</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="5" t="inlineStr">
-        <is>
-          <t>Service Charges</t>
-        </is>
-      </c>
-      <c r="B34" s="4" t="n">
-        <v>24970</v>
-      </c>
-      <c r="C34" s="4" t="n">
-        <v>0.25</v>
-      </c>
-      <c r="D34" s="5" t="inlineStr">
-        <is>
-          <t>Unmapped</t>
-        </is>
-      </c>
-    </row>
-    <row r="35"/>
-    <row r="36">
-      <c r="A36" s="6" t="inlineStr">
-        <is>
-          <t>Summary:</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Total Amount:</t>
-        </is>
-      </c>
-      <c r="B37" s="7" t="n">
-        <v>675211483.74</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Total Amount (Lakhs):</t>
-        </is>
-      </c>
-      <c r="B38" s="7" t="n">
-        <v>6752.11</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+      <c r="A27" t="inlineStr">
         <is>
           <t>Matched Accounts Count:</t>
         </is>
       </c>
-      <c r="B39" s="7" t="n">
-        <v>17</v>
+      <c r="B27" s="7" t="n">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
